--- a/spliced/falling/2023-03-25_17-59-17/accelerometer_selected.xlsx
+++ b/spliced/falling/2023-03-25_17-59-17/accelerometer_selected.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,233 +452,222 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-3.058035731315613</v>
+        <v>-3.092723965644837</v>
       </c>
       <c r="B2" t="n">
-        <v>6.997355103492737</v>
+        <v>7.026303648948669</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.73139876127243</v>
+        <v>-1.051015242934228</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-3.209980964660648</v>
+        <v>-3.058035731315613</v>
       </c>
       <c r="B3" t="n">
-        <v>6.448858737945555</v>
+        <v>6.997355103492737</v>
       </c>
       <c r="C3" t="n">
-        <v>-2.419030904769898</v>
+        <v>-1.73139876127243</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-4.36844623088837</v>
+        <v>-3.209980964660648</v>
       </c>
       <c r="B4" t="n">
-        <v>5.834601938724516</v>
+        <v>6.448858737945555</v>
       </c>
       <c r="C4" t="n">
-        <v>-2.828514367341996</v>
+        <v>-2.419030904769898</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-5.497431874275209</v>
+        <v>-4.36844623088837</v>
       </c>
       <c r="B5" t="n">
-        <v>4.208867311477659</v>
+        <v>5.834601938724516</v>
       </c>
       <c r="C5" t="n">
-        <v>-4.62852203845978</v>
+        <v>-2.828514367341996</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-4.317517697811123</v>
+        <v>-5.497431874275209</v>
       </c>
       <c r="B6" t="n">
-        <v>3.698737800121307</v>
+        <v>4.208867311477659</v>
       </c>
       <c r="C6" t="n">
-        <v>-3.781835377216336</v>
+        <v>-4.62852203845978</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-2.994236230850219</v>
+        <v>-4.317517697811123</v>
       </c>
       <c r="B7" t="n">
-        <v>3.967291116714478</v>
+        <v>3.698737800121307</v>
       </c>
       <c r="C7" t="n">
-        <v>-1.983362078666686</v>
+        <v>-3.781835377216336</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>19.28501731157317</v>
+        <v>-2.994236230850219</v>
       </c>
       <c r="B8" t="n">
-        <v>7.939440250396752</v>
+        <v>3.967291116714478</v>
       </c>
       <c r="C8" t="n">
-        <v>2.441468685865424</v>
+        <v>-1.983362078666686</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>40.94155550003035</v>
+        <v>19.28501731157317</v>
       </c>
       <c r="B9" t="n">
-        <v>11.31398761272427</v>
+        <v>7.939440250396752</v>
       </c>
       <c r="C9" t="n">
-        <v>5.767251133918734</v>
+        <v>2.441468685865424</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-2.696913838386517</v>
+        <v>40.94155550003035</v>
       </c>
       <c r="B10" t="n">
-        <v>3.673633515834829</v>
+        <v>11.31398761272427</v>
       </c>
       <c r="C10" t="n">
-        <v>-1.52291007339954</v>
+        <v>5.767251133918734</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2.028153419494632</v>
+        <v>-2.696913838386517</v>
       </c>
       <c r="B11" t="n">
-        <v>9.004679679870595</v>
+        <v>3.673633515834829</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.501968502998354</v>
+        <v>-1.52291007339954</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2.85636705160141</v>
+        <v>2.028153419494632</v>
       </c>
       <c r="B12" t="n">
-        <v>6.616586804389952</v>
+        <v>9.004679679870595</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.9499017149209981</v>
+        <v>-0.501968502998354</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2.147812247276305</v>
+        <v>2.85636705160141</v>
       </c>
       <c r="B13" t="n">
-        <v>6.509400129318237</v>
+        <v>6.616586804389952</v>
       </c>
       <c r="C13" t="n">
-        <v>-1.382609903812409</v>
+        <v>-0.9499017149209981</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1.557738900184631</v>
+        <v>2.147812247276305</v>
       </c>
       <c r="B14" t="n">
-        <v>7.761633634567263</v>
+        <v>6.509400129318237</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.5445335209369638</v>
+        <v>-1.382609903812409</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1.976663112640384</v>
+        <v>1.557738900184631</v>
       </c>
       <c r="B15" t="n">
-        <v>7.559864521026608</v>
+        <v>7.761633634567263</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.4916380643844624</v>
+        <v>-0.5445335209369638</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2.532021999359131</v>
+        <v>1.976663112640384</v>
       </c>
       <c r="B16" t="n">
-        <v>6.69653069972992</v>
+        <v>7.559864521026608</v>
       </c>
       <c r="C16" t="n">
-        <v>-1.035512745380402</v>
+        <v>-0.4916380643844624</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2.414215922355652</v>
+        <v>2.532021999359131</v>
       </c>
       <c r="B17" t="n">
-        <v>6.828933358192444</v>
+        <v>6.69653069972992</v>
       </c>
       <c r="C17" t="n">
-        <v>-1.054423272609711</v>
+        <v>-1.035512745380402</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2.389017283916475</v>
+        <v>2.414215922355652</v>
       </c>
       <c r="B18" t="n">
-        <v>6.962057828903196</v>
+        <v>6.828933358192444</v>
       </c>
       <c r="C18" t="n">
-        <v>-1.006362080574036</v>
+        <v>-1.054423272609711</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2.858325004577636</v>
+        <v>2.389017283916475</v>
       </c>
       <c r="B19" t="n">
-        <v>6.617825984954833</v>
+        <v>6.962057828903196</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.9791393280029302</v>
+        <v>-1.006362080574036</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>2.697556555271147</v>
+        <v>2.858325004577636</v>
       </c>
       <c r="B20" t="n">
-        <v>6.472295284271239</v>
+        <v>6.617825984954833</v>
       </c>
       <c r="C20" t="n">
-        <v>-1.139101475477219</v>
+        <v>-0.9791393280029302</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>2.491997003555297</v>
+        <v>2.697556555271147</v>
       </c>
       <c r="B21" t="n">
-        <v>6.562706351280213</v>
+        <v>6.472295284271239</v>
       </c>
       <c r="C21" t="n">
-        <v>-1.225150167942047</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>2.430862486362457</v>
-      </c>
-      <c r="B22" t="n">
-        <v>6.55536675453186</v>
-      </c>
-      <c r="C22" t="n">
-        <v>-1.168295040726662</v>
+        <v>-1.139101475477219</v>
       </c>
     </row>
   </sheetData>

--- a/spliced/falling/2023-03-25_17-59-17/accelerometer_selected.xlsx
+++ b/spliced/falling/2023-03-25_17-59-17/accelerometer_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,222 +452,332 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-3.092723965644837</v>
+        <v>-2.896898627281189</v>
       </c>
       <c r="B2" t="n">
-        <v>7.026303648948669</v>
+        <v>7.169353723526001</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.051015242934228</v>
+        <v>-0.4825034886598586</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-3.058035731315613</v>
+        <v>-3.050878047943115</v>
       </c>
       <c r="B3" t="n">
-        <v>6.997355103492737</v>
+        <v>7.165829300880432</v>
       </c>
       <c r="C3" t="n">
-        <v>-1.73139876127243</v>
+        <v>-0.3550609424710275</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-3.209980964660648</v>
+        <v>-3.056754767894745</v>
       </c>
       <c r="B4" t="n">
-        <v>6.448858737945555</v>
+        <v>7.225212574005127</v>
       </c>
       <c r="C4" t="n">
-        <v>-2.419030904769898</v>
+        <v>-0.4760921187698841</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-4.36844623088837</v>
+        <v>-3.037489891052246</v>
       </c>
       <c r="B5" t="n">
-        <v>5.834601938724516</v>
+        <v>7.236634731292725</v>
       </c>
       <c r="C5" t="n">
-        <v>-2.828514367341996</v>
+        <v>-0.4997432827949525</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-5.497431874275209</v>
+        <v>-2.916959762573243</v>
       </c>
       <c r="B6" t="n">
-        <v>4.208867311477659</v>
+        <v>7.203977525234222</v>
       </c>
       <c r="C6" t="n">
-        <v>-4.62852203845978</v>
+        <v>-0.616998553276062</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-4.317517697811123</v>
+        <v>-3.009585857391357</v>
       </c>
       <c r="B7" t="n">
-        <v>3.698737800121307</v>
+        <v>7.19498348236084</v>
       </c>
       <c r="C7" t="n">
-        <v>-3.781835377216336</v>
+        <v>-0.6860059350728989</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-2.994236230850219</v>
+        <v>-2.86443132162094</v>
       </c>
       <c r="B8" t="n">
-        <v>3.967291116714478</v>
+        <v>7.121285438537598</v>
       </c>
       <c r="C8" t="n">
-        <v>-1.983362078666686</v>
+        <v>-0.5276834592223163</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>19.28501731157317</v>
+        <v>-2.889585494995118</v>
       </c>
       <c r="B9" t="n">
-        <v>7.939440250396752</v>
+        <v>7.118069887161255</v>
       </c>
       <c r="C9" t="n">
-        <v>2.441468685865424</v>
+        <v>-0.4351722449064255</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>40.94155550003035</v>
+        <v>-3.056696653366089</v>
       </c>
       <c r="B10" t="n">
-        <v>11.31398761272427</v>
+        <v>7.102567493915558</v>
       </c>
       <c r="C10" t="n">
-        <v>5.767251133918734</v>
+        <v>-0.6014280728995802</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-2.696913838386517</v>
+        <v>-3.092723965644837</v>
       </c>
       <c r="B11" t="n">
-        <v>3.673633515834829</v>
+        <v>7.026303648948669</v>
       </c>
       <c r="C11" t="n">
-        <v>-1.52291007339954</v>
+        <v>-1.051015242934228</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2.028153419494632</v>
+        <v>-3.058035731315613</v>
       </c>
       <c r="B12" t="n">
-        <v>9.004679679870595</v>
+        <v>6.997355103492737</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.501968502998354</v>
+        <v>-1.73139876127243</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2.85636705160141</v>
+        <v>-3.209980964660648</v>
       </c>
       <c r="B13" t="n">
-        <v>6.616586804389952</v>
+        <v>6.448858737945555</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.9499017149209981</v>
+        <v>-2.419030904769898</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2.147812247276305</v>
+        <v>-4.36844623088837</v>
       </c>
       <c r="B14" t="n">
-        <v>6.509400129318237</v>
+        <v>5.834601938724516</v>
       </c>
       <c r="C14" t="n">
-        <v>-1.382609903812409</v>
+        <v>-2.828514367341996</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1.557738900184631</v>
+        <v>-5.497431874275209</v>
       </c>
       <c r="B15" t="n">
-        <v>7.761633634567263</v>
+        <v>4.208867311477659</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.5445335209369638</v>
+        <v>-4.62852203845978</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1.976663112640384</v>
+        <v>-4.317517697811123</v>
       </c>
       <c r="B16" t="n">
-        <v>7.559864521026608</v>
+        <v>3.698737800121307</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.4916380643844624</v>
+        <v>-3.781835377216336</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2.532021999359131</v>
+        <v>-2.994236230850219</v>
       </c>
       <c r="B17" t="n">
-        <v>6.69653069972992</v>
+        <v>3.967291116714478</v>
       </c>
       <c r="C17" t="n">
-        <v>-1.035512745380402</v>
+        <v>-1.983362078666686</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2.414215922355652</v>
+        <v>19.28501731157317</v>
       </c>
       <c r="B18" t="n">
-        <v>6.828933358192444</v>
+        <v>7.939440250396752</v>
       </c>
       <c r="C18" t="n">
-        <v>-1.054423272609711</v>
+        <v>2.441468685865424</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2.389017283916475</v>
+        <v>40.94155550003035</v>
       </c>
       <c r="B19" t="n">
-        <v>6.962057828903196</v>
+        <v>11.31398761272427</v>
       </c>
       <c r="C19" t="n">
-        <v>-1.006362080574036</v>
+        <v>5.767251133918734</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>2.858325004577636</v>
+        <v>-2.696913838386517</v>
       </c>
       <c r="B20" t="n">
-        <v>6.617825984954833</v>
+        <v>3.673633515834829</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.9791393280029302</v>
+        <v>-1.52291007339954</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
+        <v>2.028153419494632</v>
+      </c>
+      <c r="B21" t="n">
+        <v>9.004679679870595</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-0.501968502998354</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>2.85636705160141</v>
+      </c>
+      <c r="B22" t="n">
+        <v>6.616586804389952</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-0.9499017149209981</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>2.147812247276305</v>
+      </c>
+      <c r="B23" t="n">
+        <v>6.509400129318237</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-1.382609903812409</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>1.557738900184631</v>
+      </c>
+      <c r="B24" t="n">
+        <v>7.761633634567263</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-0.5445335209369638</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>1.976663112640384</v>
+      </c>
+      <c r="B25" t="n">
+        <v>7.559864521026608</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-0.4916380643844624</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>2.532021999359131</v>
+      </c>
+      <c r="B26" t="n">
+        <v>6.69653069972992</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-1.035512745380402</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>2.414215922355652</v>
+      </c>
+      <c r="B27" t="n">
+        <v>6.828933358192444</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-1.054423272609711</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>2.389017283916475</v>
+      </c>
+      <c r="B28" t="n">
+        <v>6.962057828903196</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-1.006362080574036</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>2.858325004577636</v>
+      </c>
+      <c r="B29" t="n">
+        <v>6.617825984954833</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-0.9791393280029302</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
         <v>2.697556555271147</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B30" t="n">
         <v>6.472295284271239</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C30" t="n">
         <v>-1.139101475477219</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>2.491997003555297</v>
+      </c>
+      <c r="B31" t="n">
+        <v>6.562706351280213</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-1.225150167942047</v>
       </c>
     </row>
   </sheetData>
